--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Thbs1-Sdc4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Thbs1-Sdc4.xlsx
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>31.29063333333333</v>
+        <v>41.428665</v>
       </c>
       <c r="H2">
-        <v>93.8719</v>
+        <v>124.285995</v>
       </c>
       <c r="I2">
-        <v>0.02026792284095206</v>
+        <v>0.06969137269740189</v>
       </c>
       <c r="J2">
-        <v>0.02026792284095205</v>
+        <v>0.06969137269740189</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>2.085625</v>
+        <v>1.222961333333333</v>
       </c>
       <c r="N2">
-        <v>6.256875</v>
+        <v>3.668884</v>
       </c>
       <c r="O2">
-        <v>0.02635737528678909</v>
+        <v>0.02082890820948692</v>
       </c>
       <c r="P2">
-        <v>0.02635737528678909</v>
+        <v>0.02082890820948692</v>
       </c>
       <c r="Q2">
-        <v>65.26052714583332</v>
+        <v>50.66565538662</v>
       </c>
       <c r="R2">
-        <v>587.3447443125</v>
+        <v>455.99089847958</v>
       </c>
       <c r="S2">
-        <v>0.0005342092486026579</v>
+        <v>0.001451595204907327</v>
       </c>
       <c r="T2">
-        <v>0.0005342092486026578</v>
+        <v>0.001451595204907327</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>31.29063333333333</v>
+        <v>41.428665</v>
       </c>
       <c r="H3">
-        <v>93.8719</v>
+        <v>124.285995</v>
       </c>
       <c r="I3">
-        <v>0.02026792284095206</v>
+        <v>0.06969137269740189</v>
       </c>
       <c r="J3">
-        <v>0.02026792284095205</v>
+        <v>0.06969137269740189</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>29.801266</v>
       </c>
       <c r="O3">
-        <v>0.1255392111850449</v>
+        <v>0.1691870972318839</v>
       </c>
       <c r="P3">
-        <v>0.1255392111850449</v>
+        <v>0.169187097231884</v>
       </c>
       <c r="Q3">
-        <v>310.8334957583778</v>
+        <v>411.5422218966299</v>
       </c>
       <c r="R3">
-        <v>2797.5014618254</v>
+        <v>3703.87999706967</v>
       </c>
       <c r="S3">
-        <v>0.002544419045812476</v>
+        <v>0.01179088104877879</v>
       </c>
       <c r="T3">
-        <v>0.002544419045812475</v>
+        <v>0.0117908810487788</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>31.29063333333333</v>
+        <v>41.428665</v>
       </c>
       <c r="H4">
-        <v>93.8719</v>
+        <v>124.285995</v>
       </c>
       <c r="I4">
-        <v>0.02026792284095206</v>
+        <v>0.06969137269740189</v>
       </c>
       <c r="J4">
-        <v>0.02026792284095205</v>
+        <v>0.06969137269740189</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>30.006021</v>
+        <v>14.516908</v>
       </c>
       <c r="N4">
-        <v>90.01806300000001</v>
+        <v>43.550724</v>
       </c>
       <c r="O4">
-        <v>0.3792052532743301</v>
+        <v>0.247245220250272</v>
       </c>
       <c r="P4">
-        <v>0.3792052532743301</v>
+        <v>0.2472452202502721</v>
       </c>
       <c r="Q4">
-        <v>938.9074009033001</v>
+        <v>601.41611836782</v>
       </c>
       <c r="R4">
-        <v>8450.166608129701</v>
+        <v>5412.74506531038</v>
       </c>
       <c r="S4">
-        <v>0.007685702814247805</v>
+        <v>0.01723085879211292</v>
       </c>
       <c r="T4">
-        <v>0.007685702814247803</v>
+        <v>0.01723085879211293</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>31.29063333333333</v>
+        <v>41.428665</v>
       </c>
       <c r="H5">
-        <v>93.8719</v>
+        <v>124.285995</v>
       </c>
       <c r="I5">
-        <v>0.02026792284095206</v>
+        <v>0.06969137269740189</v>
       </c>
       <c r="J5">
-        <v>0.02026792284095205</v>
+        <v>0.06969137269740189</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>15.70503166666666</v>
+        <v>12.24131666666667</v>
       </c>
       <c r="N5">
-        <v>47.115095</v>
+        <v>36.72395</v>
       </c>
       <c r="O5">
-        <v>0.1984745165258568</v>
+        <v>0.2084884078209579</v>
       </c>
       <c r="P5">
-        <v>0.1984745165258568</v>
+        <v>0.2084884078209579</v>
       </c>
       <c r="Q5">
-        <v>491.4203873700555</v>
+        <v>507.14140734225</v>
       </c>
       <c r="R5">
-        <v>4422.7834863305</v>
+        <v>4564.27266608025</v>
       </c>
       <c r="S5">
-        <v>0.00402266618684133</v>
+        <v>0.01452984333253829</v>
       </c>
       <c r="T5">
-        <v>0.004022666186841329</v>
+        <v>0.0145298433325383</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>31.29063333333333</v>
+        <v>41.428665</v>
       </c>
       <c r="H6">
-        <v>93.8719</v>
+        <v>124.285995</v>
       </c>
       <c r="I6">
-        <v>0.02026792284095206</v>
+        <v>0.06969137269740189</v>
       </c>
       <c r="J6">
-        <v>0.02026792284095205</v>
+        <v>0.06969137269740189</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>21.398273</v>
+        <v>20.799674</v>
       </c>
       <c r="N6">
-        <v>64.194819</v>
+        <v>62.399022</v>
       </c>
       <c r="O6">
-        <v>0.2704236437279791</v>
+        <v>0.3542503664873991</v>
       </c>
       <c r="P6">
-        <v>0.2704236437279791</v>
+        <v>0.3542503664873992</v>
       </c>
       <c r="Q6">
-        <v>669.5655144095666</v>
+        <v>861.7027262552099</v>
       </c>
       <c r="R6">
-        <v>6026.089629686099</v>
+        <v>7755.324536296889</v>
       </c>
       <c r="S6">
-        <v>0.005480925545447789</v>
+        <v>0.02468819431906454</v>
       </c>
       <c r="T6">
-        <v>0.005480925545447787</v>
+        <v>0.02468819431906455</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,43 +853,43 @@
         <v>170.232249</v>
       </c>
       <c r="H7">
-        <v>510.6967470000001</v>
+        <v>510.696747</v>
       </c>
       <c r="I7">
-        <v>0.1102647572204378</v>
+        <v>0.2863649869040173</v>
       </c>
       <c r="J7">
-        <v>0.1102647572204378</v>
+        <v>0.2863649869040173</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>2.085625</v>
+        <v>1.222961333333333</v>
       </c>
       <c r="N7">
-        <v>6.256875</v>
+        <v>3.668884</v>
       </c>
       <c r="O7">
-        <v>0.02635737528678909</v>
+        <v>0.02082890820948692</v>
       </c>
       <c r="P7">
-        <v>0.02635737528678909</v>
+        <v>0.02082890820948692</v>
       </c>
       <c r="Q7">
-        <v>355.040634320625</v>
+        <v>208.187458213372</v>
       </c>
       <c r="R7">
-        <v>3195.365708885625</v>
+        <v>1873.687123920348</v>
       </c>
       <c r="S7">
-        <v>0.002906289586965766</v>
+        <v>0.0059646700266347</v>
       </c>
       <c r="T7">
-        <v>0.002906289586965766</v>
+        <v>0.005964670026634702</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,13 +915,13 @@
         <v>170.232249</v>
       </c>
       <c r="H8">
-        <v>510.6967470000001</v>
+        <v>510.696747</v>
       </c>
       <c r="I8">
-        <v>0.1102647572204378</v>
+        <v>0.2863649869040173</v>
       </c>
       <c r="J8">
-        <v>0.1102647572204378</v>
+        <v>0.2863649869040173</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>29.801266</v>
       </c>
       <c r="O8">
-        <v>0.1255392111850449</v>
+        <v>0.1691870972318839</v>
       </c>
       <c r="P8">
-        <v>0.1255392111850449</v>
+        <v>0.169187097231884</v>
       </c>
       <c r="Q8">
         <v>1691.045511409078</v>
@@ -948,10 +948,10 @@
         <v>15219.4096026817</v>
       </c>
       <c r="S8">
-        <v>0.01384255064296425</v>
+        <v>0.04844926088313714</v>
       </c>
       <c r="T8">
-        <v>0.01384255064296425</v>
+        <v>0.04844926088313717</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,13 +977,13 @@
         <v>170.232249</v>
       </c>
       <c r="H9">
-        <v>510.6967470000001</v>
+        <v>510.696747</v>
       </c>
       <c r="I9">
-        <v>0.1102647572204378</v>
+        <v>0.2863649869040173</v>
       </c>
       <c r="J9">
-        <v>0.1102647572204378</v>
+        <v>0.2863649869040173</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>30.006021</v>
+        <v>14.516908</v>
       </c>
       <c r="N9">
-        <v>90.01806300000001</v>
+        <v>43.550724</v>
       </c>
       <c r="O9">
-        <v>0.3792052532743301</v>
+        <v>0.247245220250272</v>
       </c>
       <c r="P9">
-        <v>0.3792052532743301</v>
+        <v>0.2472452202502721</v>
       </c>
       <c r="Q9">
-        <v>5107.99243837123</v>
+        <v>2471.245897366092</v>
       </c>
       <c r="R9">
-        <v>45971.93194534107</v>
+        <v>22241.21307629483</v>
       </c>
       <c r="S9">
-        <v>0.04181297518900863</v>
+        <v>0.07080237425905002</v>
       </c>
       <c r="T9">
-        <v>0.04181297518900862</v>
+        <v>0.07080237425905005</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,13 +1039,13 @@
         <v>170.232249</v>
       </c>
       <c r="H10">
-        <v>510.6967470000001</v>
+        <v>510.696747</v>
       </c>
       <c r="I10">
-        <v>0.1102647572204378</v>
+        <v>0.2863649869040173</v>
       </c>
       <c r="J10">
-        <v>0.1102647572204378</v>
+        <v>0.2863649869040173</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>15.70503166666666</v>
+        <v>12.24131666666667</v>
       </c>
       <c r="N10">
-        <v>47.115095</v>
+        <v>36.72395</v>
       </c>
       <c r="O10">
-        <v>0.1984745165258568</v>
+        <v>0.2084884078209579</v>
       </c>
       <c r="P10">
-        <v>0.1984745165258568</v>
+        <v>0.2084884078209579</v>
       </c>
       <c r="Q10">
-        <v>2673.502861232885</v>
+        <v>2083.86686688785</v>
       </c>
       <c r="R10">
-        <v>24061.52575109597</v>
+        <v>18754.80180199065</v>
       </c>
       <c r="S10">
-        <v>0.02188474437916737</v>
+        <v>0.05970378017528802</v>
       </c>
       <c r="T10">
-        <v>0.02188474437916737</v>
+        <v>0.05970378017528804</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,13 +1101,13 @@
         <v>170.232249</v>
       </c>
       <c r="H11">
-        <v>510.6967470000001</v>
+        <v>510.696747</v>
       </c>
       <c r="I11">
-        <v>0.1102647572204378</v>
+        <v>0.2863649869040173</v>
       </c>
       <c r="J11">
-        <v>0.1102647572204378</v>
+        <v>0.2863649869040173</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>21.398273</v>
+        <v>20.799674</v>
       </c>
       <c r="N11">
-        <v>64.194819</v>
+        <v>62.399022</v>
       </c>
       <c r="O11">
-        <v>0.2704236437279791</v>
+        <v>0.3542503664873991</v>
       </c>
       <c r="P11">
-        <v>0.2704236437279791</v>
+        <v>0.3542503664873992</v>
       </c>
       <c r="Q11">
-        <v>3642.676137505977</v>
+        <v>3540.775283486826</v>
       </c>
       <c r="R11">
-        <v>32784.08523755379</v>
+        <v>31866.97755138143</v>
       </c>
       <c r="S11">
-        <v>0.02981819742233178</v>
+        <v>0.1014449015599074</v>
       </c>
       <c r="T11">
-        <v>0.02981819742233177</v>
+        <v>0.1014449015599074</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,46 +1160,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>603.9765116666666</v>
+        <v>244.5761666666666</v>
       </c>
       <c r="H12">
-        <v>1811.929535</v>
+        <v>733.7284999999999</v>
       </c>
       <c r="I12">
-        <v>0.3912144955905029</v>
+        <v>0.4114264551867299</v>
       </c>
       <c r="J12">
-        <v>0.3912144955905029</v>
+        <v>0.41142645518673</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>2.085625</v>
+        <v>1.222961333333333</v>
       </c>
       <c r="N12">
-        <v>6.256875</v>
+        <v>3.668884</v>
       </c>
       <c r="O12">
-        <v>0.02635737528678909</v>
+        <v>0.02082890820948692</v>
       </c>
       <c r="P12">
-        <v>0.02635737528678909</v>
+        <v>0.02082890820948692</v>
       </c>
       <c r="Q12">
-        <v>1259.668512144792</v>
+        <v>299.1071948882222</v>
       </c>
       <c r="R12">
-        <v>11337.01660930313</v>
+        <v>2691.964753994</v>
       </c>
       <c r="S12">
-        <v>0.01031138727791078</v>
+        <v>0.008569563870038981</v>
       </c>
       <c r="T12">
-        <v>0.01031138727791078</v>
+        <v>0.008569563870038984</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>603.9765116666666</v>
+        <v>244.5761666666666</v>
       </c>
       <c r="H13">
-        <v>1811.929535</v>
+        <v>733.7284999999999</v>
       </c>
       <c r="I13">
-        <v>0.3912144955905029</v>
+        <v>0.4114264551867299</v>
       </c>
       <c r="J13">
-        <v>0.3912144955905029</v>
+        <v>0.41142645518673</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>29.801266</v>
       </c>
       <c r="O13">
-        <v>0.1255392111850449</v>
+        <v>0.1691870972318839</v>
       </c>
       <c r="P13">
-        <v>0.1255392111850449</v>
+        <v>0.169187097231884</v>
       </c>
       <c r="Q13">
-        <v>5999.754893976811</v>
+        <v>2429.559800031222</v>
       </c>
       <c r="R13">
-        <v>53997.79404579131</v>
+        <v>21866.038200281</v>
       </c>
       <c r="S13">
-        <v>0.04911275918058697</v>
+        <v>0.06960804767744662</v>
       </c>
       <c r="T13">
-        <v>0.04911275918058697</v>
+        <v>0.06960804767744665</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>603.9765116666666</v>
+        <v>244.5761666666666</v>
       </c>
       <c r="H14">
-        <v>1811.929535</v>
+        <v>733.7284999999999</v>
       </c>
       <c r="I14">
-        <v>0.3912144955905029</v>
+        <v>0.4114264551867299</v>
       </c>
       <c r="J14">
-        <v>0.3912144955905029</v>
+        <v>0.41142645518673</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>30.006021</v>
+        <v>14.516908</v>
       </c>
       <c r="N14">
-        <v>90.01806300000001</v>
+        <v>43.550724</v>
       </c>
       <c r="O14">
-        <v>0.3792052532743301</v>
+        <v>0.247245220250272</v>
       </c>
       <c r="P14">
-        <v>0.3792052532743301</v>
+        <v>0.2472452202502721</v>
       </c>
       <c r="Q14">
-        <v>18122.93189257675</v>
+        <v>3550.489710492666</v>
       </c>
       <c r="R14">
-        <v>163106.3870331907</v>
+        <v>31954.407394434</v>
       </c>
       <c r="S14">
-        <v>0.148350591884986</v>
+        <v>0.1017232245294317</v>
       </c>
       <c r="T14">
-        <v>0.1483505918849859</v>
+        <v>0.1017232245294317</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>603.9765116666666</v>
+        <v>244.5761666666666</v>
       </c>
       <c r="H15">
-        <v>1811.929535</v>
+        <v>733.7284999999999</v>
       </c>
       <c r="I15">
-        <v>0.3912144955905029</v>
+        <v>0.4114264551867299</v>
       </c>
       <c r="J15">
-        <v>0.3912144955905029</v>
+        <v>0.41142645518673</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>15.70503166666666</v>
+        <v>12.24131666666667</v>
       </c>
       <c r="N15">
-        <v>47.115095</v>
+        <v>36.72395</v>
       </c>
       <c r="O15">
-        <v>0.1984745165258568</v>
+        <v>0.2084884078209579</v>
       </c>
       <c r="P15">
-        <v>0.1984745165258568</v>
+        <v>0.2084884078209579</v>
       </c>
       <c r="Q15">
-        <v>9485.470241647869</v>
+        <v>2993.934305286111</v>
       </c>
       <c r="R15">
-        <v>85369.23217483082</v>
+        <v>26945.408747575</v>
       </c>
       <c r="S15">
-        <v>0.07764610787023202</v>
+        <v>0.085777646577302</v>
       </c>
       <c r="T15">
-        <v>0.07764610787023202</v>
+        <v>0.08577764657730202</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>603.9765116666666</v>
+        <v>244.5761666666666</v>
       </c>
       <c r="H16">
-        <v>1811.929535</v>
+        <v>733.7284999999999</v>
       </c>
       <c r="I16">
-        <v>0.3912144955905029</v>
+        <v>0.4114264551867299</v>
       </c>
       <c r="J16">
-        <v>0.3912144955905029</v>
+        <v>0.41142645518673</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>21.398273</v>
+        <v>20.799674</v>
       </c>
       <c r="N16">
-        <v>64.194819</v>
+        <v>62.399022</v>
       </c>
       <c r="O16">
-        <v>0.2704236437279791</v>
+        <v>0.3542503664873991</v>
       </c>
       <c r="P16">
-        <v>0.2704236437279791</v>
+        <v>0.3542503664873992</v>
       </c>
       <c r="Q16">
-        <v>12924.05428223102</v>
+        <v>5087.104534836332</v>
       </c>
       <c r="R16">
-        <v>116316.4885400792</v>
+        <v>45783.940813527</v>
       </c>
       <c r="S16">
-        <v>0.1057936493767872</v>
+        <v>0.1457479725325106</v>
       </c>
       <c r="T16">
-        <v>0.1057936493767872</v>
+        <v>0.1457479725325106</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,46 +1470,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>43.46379233333332</v>
+        <v>24.173247</v>
       </c>
       <c r="H17">
-        <v>130.391377</v>
+        <v>72.51974100000001</v>
       </c>
       <c r="I17">
-        <v>0.02815285903621307</v>
+        <v>0.04066427836821081</v>
       </c>
       <c r="J17">
-        <v>0.02815285903621307</v>
+        <v>0.04066427836821081</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>2.085625</v>
+        <v>1.222961333333333</v>
       </c>
       <c r="N17">
-        <v>6.256875</v>
+        <v>3.668884</v>
       </c>
       <c r="O17">
-        <v>0.02635737528678909</v>
+        <v>0.02082890820948692</v>
       </c>
       <c r="P17">
-        <v>0.02635737528678909</v>
+        <v>0.02082890820948692</v>
       </c>
       <c r="Q17">
-        <v>90.6491718852083</v>
+        <v>29.562946382116</v>
       </c>
       <c r="R17">
-        <v>815.8425469668748</v>
+        <v>266.066517439044</v>
       </c>
       <c r="S17">
-        <v>0.0007420354710135394</v>
+        <v>0.0008469925215364875</v>
       </c>
       <c r="T17">
-        <v>0.0007420354710135394</v>
+        <v>0.0008469925215364878</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>43.46379233333332</v>
+        <v>24.173247</v>
       </c>
       <c r="H18">
-        <v>130.391377</v>
+        <v>72.51974100000001</v>
       </c>
       <c r="I18">
-        <v>0.02815285903621307</v>
+        <v>0.04066427836821081</v>
       </c>
       <c r="J18">
-        <v>0.02815285903621307</v>
+        <v>0.04066427836821081</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>29.801266</v>
       </c>
       <c r="O18">
-        <v>0.1255392111850449</v>
+        <v>0.1691870972318839</v>
       </c>
       <c r="P18">
-        <v>0.1255392111850449</v>
+        <v>0.169187097231884</v>
       </c>
       <c r="Q18">
-        <v>431.7586788981423</v>
+        <v>240.131121310234</v>
       </c>
       <c r="R18">
-        <v>3885.828110083281</v>
+        <v>2161.180091792106</v>
       </c>
       <c r="S18">
-        <v>0.003534287716009953</v>
+        <v>0.006879871218146877</v>
       </c>
       <c r="T18">
-        <v>0.003534287716009953</v>
+        <v>0.00687987121814688</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>43.46379233333332</v>
+        <v>24.173247</v>
       </c>
       <c r="H19">
-        <v>130.391377</v>
+        <v>72.51974100000001</v>
       </c>
       <c r="I19">
-        <v>0.02815285903621307</v>
+        <v>0.04066427836821081</v>
       </c>
       <c r="J19">
-        <v>0.02815285903621307</v>
+        <v>0.04066427836821081</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>30.006021</v>
+        <v>14.516908</v>
       </c>
       <c r="N19">
-        <v>90.01806300000001</v>
+        <v>43.550724</v>
       </c>
       <c r="O19">
-        <v>0.3792052532743301</v>
+        <v>0.247245220250272</v>
       </c>
       <c r="P19">
-        <v>0.3792052532743301</v>
+        <v>0.2472452202502721</v>
       </c>
       <c r="Q19">
-        <v>1304.175465493639</v>
+        <v>350.920802760276</v>
       </c>
       <c r="R19">
-        <v>11737.57918944275</v>
+        <v>3158.287224842485</v>
       </c>
       <c r="S19">
-        <v>0.01067571204122369</v>
+        <v>0.01005404846146665</v>
       </c>
       <c r="T19">
-        <v>0.01067571204122369</v>
+        <v>0.01005404846146666</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>43.46379233333332</v>
+        <v>24.173247</v>
       </c>
       <c r="H20">
-        <v>130.391377</v>
+        <v>72.51974100000001</v>
       </c>
       <c r="I20">
-        <v>0.02815285903621307</v>
+        <v>0.04066427836821081</v>
       </c>
       <c r="J20">
-        <v>0.02815285903621307</v>
+        <v>0.04066427836821081</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>15.70503166666666</v>
+        <v>12.24131666666667</v>
       </c>
       <c r="N20">
-        <v>47.115095</v>
+        <v>36.72395</v>
       </c>
       <c r="O20">
-        <v>0.1984745165258568</v>
+        <v>0.2084884078209579</v>
       </c>
       <c r="P20">
-        <v>0.1984745165258568</v>
+        <v>0.2084884078209579</v>
       </c>
       <c r="Q20">
-        <v>682.6002349484237</v>
+        <v>295.9123713885501</v>
       </c>
       <c r="R20">
-        <v>6143.402114535814</v>
+        <v>2663.211342496951</v>
       </c>
       <c r="S20">
-        <v>0.005587625086032989</v>
+        <v>0.008478030652176491</v>
       </c>
       <c r="T20">
-        <v>0.005587625086032989</v>
+        <v>0.008478030652176493</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>43.46379233333332</v>
+        <v>24.173247</v>
       </c>
       <c r="H21">
-        <v>130.391377</v>
+        <v>72.51974100000001</v>
       </c>
       <c r="I21">
-        <v>0.02815285903621307</v>
+        <v>0.04066427836821081</v>
       </c>
       <c r="J21">
-        <v>0.02815285903621307</v>
+        <v>0.04066427836821081</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>21.398273</v>
+        <v>20.799674</v>
       </c>
       <c r="N21">
-        <v>64.194819</v>
+        <v>62.399022</v>
       </c>
       <c r="O21">
-        <v>0.2704236437279791</v>
+        <v>0.3542503664873991</v>
       </c>
       <c r="P21">
-        <v>0.2704236437279791</v>
+        <v>0.3542503664873992</v>
       </c>
       <c r="Q21">
-        <v>930.0500939639735</v>
+        <v>502.7956571214781</v>
       </c>
       <c r="R21">
-        <v>8370.450845675761</v>
+        <v>4525.160914093302</v>
       </c>
       <c r="S21">
-        <v>0.0076131987219329</v>
+        <v>0.0144053355148843</v>
       </c>
       <c r="T21">
-        <v>0.007613198721932899</v>
+        <v>0.0144053355148843</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,46 +1780,46 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>694.886846</v>
+        <v>114.0486906666667</v>
       </c>
       <c r="H22">
-        <v>2084.660538</v>
+        <v>342.146072</v>
       </c>
       <c r="I22">
-        <v>0.4500999653118942</v>
+        <v>0.19185290684364</v>
       </c>
       <c r="J22">
-        <v>0.4500999653118942</v>
+        <v>0.19185290684364</v>
       </c>
       <c r="K22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>2.085625</v>
+        <v>1.222961333333333</v>
       </c>
       <c r="N22">
-        <v>6.256875</v>
+        <v>3.668884</v>
       </c>
       <c r="O22">
-        <v>0.02635737528678909</v>
+        <v>0.02082890820948692</v>
       </c>
       <c r="P22">
-        <v>0.02635737528678909</v>
+        <v>0.02082890820948692</v>
       </c>
       <c r="Q22">
-        <v>1449.27337818875</v>
+        <v>139.4771388026276</v>
       </c>
       <c r="R22">
-        <v>13043.46040369875</v>
+        <v>1255.294249223648</v>
       </c>
       <c r="S22">
-        <v>0.01186345370229635</v>
+        <v>0.003996086586369422</v>
       </c>
       <c r="T22">
-        <v>0.01186345370229635</v>
+        <v>0.003996086586369423</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>694.886846</v>
+        <v>114.0486906666667</v>
       </c>
       <c r="H23">
-        <v>2084.660538</v>
+        <v>342.146072</v>
       </c>
       <c r="I23">
-        <v>0.4500999653118942</v>
+        <v>0.19185290684364</v>
       </c>
       <c r="J23">
-        <v>0.4500999653118942</v>
+        <v>0.19185290684364</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>29.801266</v>
       </c>
       <c r="O23">
-        <v>0.1255392111850449</v>
+        <v>0.1691870972318839</v>
       </c>
       <c r="P23">
-        <v>0.1255392111850449</v>
+        <v>0.169187097231884</v>
       </c>
       <c r="Q23">
-        <v>6902.835912515678</v>
+        <v>1132.931789169683</v>
       </c>
       <c r="R23">
-        <v>62125.52321264111</v>
+        <v>10196.38610252715</v>
       </c>
       <c r="S23">
-        <v>0.05650519459967128</v>
+        <v>0.03245903640437449</v>
       </c>
       <c r="T23">
-        <v>0.05650519459967128</v>
+        <v>0.0324590364043745</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>694.886846</v>
+        <v>114.0486906666667</v>
       </c>
       <c r="H24">
-        <v>2084.660538</v>
+        <v>342.146072</v>
       </c>
       <c r="I24">
-        <v>0.4500999653118942</v>
+        <v>0.19185290684364</v>
       </c>
       <c r="J24">
-        <v>0.4500999653118942</v>
+        <v>0.19185290684364</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>30.006021</v>
+        <v>14.516908</v>
       </c>
       <c r="N24">
-        <v>90.01806300000001</v>
+        <v>43.550724</v>
       </c>
       <c r="O24">
-        <v>0.3792052532743301</v>
+        <v>0.247245220250272</v>
       </c>
       <c r="P24">
-        <v>0.3792052532743301</v>
+        <v>0.2472452202502721</v>
       </c>
       <c r="Q24">
-        <v>20850.78929369977</v>
+        <v>1655.634349928459</v>
       </c>
       <c r="R24">
-        <v>187657.1036432979</v>
+        <v>14900.70914935613</v>
       </c>
       <c r="S24">
-        <v>0.170680271344864</v>
+        <v>0.04743471420821069</v>
       </c>
       <c r="T24">
-        <v>0.170680271344864</v>
+        <v>0.04743471420821069</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>694.886846</v>
+        <v>114.0486906666667</v>
       </c>
       <c r="H25">
-        <v>2084.660538</v>
+        <v>342.146072</v>
       </c>
       <c r="I25">
-        <v>0.4500999653118942</v>
+        <v>0.19185290684364</v>
       </c>
       <c r="J25">
-        <v>0.4500999653118942</v>
+        <v>0.19185290684364</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>15.70503166666666</v>
+        <v>12.24131666666667</v>
       </c>
       <c r="N25">
-        <v>47.115095</v>
+        <v>36.72395</v>
       </c>
       <c r="O25">
-        <v>0.1984745165258568</v>
+        <v>0.2084884078209579</v>
       </c>
       <c r="P25">
-        <v>0.1984745165258568</v>
+        <v>0.2084884078209579</v>
       </c>
       <c r="Q25">
-        <v>10913.21992118012</v>
+        <v>1396.106137869378</v>
       </c>
       <c r="R25">
-        <v>98218.97929062111</v>
+        <v>12564.9552408244</v>
       </c>
       <c r="S25">
-        <v>0.08933337300358311</v>
+        <v>0.03999910708365305</v>
       </c>
       <c r="T25">
-        <v>0.08933337300358311</v>
+        <v>0.03999910708365306</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>694.886846</v>
+        <v>114.0486906666667</v>
       </c>
       <c r="H26">
-        <v>2084.660538</v>
+        <v>342.146072</v>
       </c>
       <c r="I26">
-        <v>0.4500999653118942</v>
+        <v>0.19185290684364</v>
       </c>
       <c r="J26">
-        <v>0.4500999653118942</v>
+        <v>0.19185290684364</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>21.398273</v>
+        <v>20.799674</v>
       </c>
       <c r="N26">
-        <v>64.194819</v>
+        <v>62.399022</v>
       </c>
       <c r="O26">
-        <v>0.2704236437279791</v>
+        <v>0.3542503664873991</v>
       </c>
       <c r="P26">
-        <v>0.2704236437279791</v>
+        <v>0.3542503664873992</v>
       </c>
       <c r="Q26">
-        <v>14869.37843481696</v>
+        <v>2372.175585993509</v>
       </c>
       <c r="R26">
-        <v>133824.4059133526</v>
+        <v>21349.58027394158</v>
       </c>
       <c r="S26">
-        <v>0.1217176726614794</v>
+        <v>0.06796396256103231</v>
       </c>
       <c r="T26">
-        <v>0.1217176726614794</v>
+        <v>0.06796396256103232</v>
       </c>
     </row>
   </sheetData>
